--- a/Master_BoM.xlsx
+++ b/Master_BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiyamanoor\Documents\GitHub\citizen_science_badge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF4CA1F-8C60-46D0-A868-80F9DE3279B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38BD525-DD1C-4E27-B63D-B60D6E16536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C32F8C8-0028-4221-B830-DA752E7E7ED4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>PCB BoM in Github contains more detailed information</t>
+  </si>
+  <si>
+    <t>Notecard cellular module</t>
+  </si>
+  <si>
+    <t>Blues Wireless</t>
+  </si>
+  <si>
+    <t>Cellular module antenna</t>
+  </si>
+  <si>
+    <t>Taoglas</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3F1519-5297-46F1-84DD-404C20CEAAF2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,12 +508,34 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
-        <v>116.55</v>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>193.35999999999999</v>
       </c>
     </row>
   </sheetData>
